--- a/templates/dataplant/Metabolomics_computational_analysis.xlsx
+++ b/templates/dataplant/Metabolomics_computational_analysis.xlsx
@@ -1,18 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C0D0A09-9E4B-477E-BA04-EBFD862051BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="isa_template" state="visible" r:id="rId4"/>
-    <sheet sheetId="2" name="4COM03_Metabolomics" state="visible" r:id="rId5"/>
+    <sheet name="isa_template" sheetId="1" r:id="rId1"/>
+    <sheet name="4COM03_Metabolomics" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="72">
   <si>
     <t>TEMPLATE</t>
   </si>
@@ -228,25 +232,19 @@
   </si>
   <si>
     <t>*.mzXML</t>
-  </si>
-  <si>
-    <t>*.mzML</t>
-  </si>
-  <si>
-    <t>*.mzData</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -273,7 +271,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -289,8 +287,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" name="annotationTable" displayName="annotationTable" ref="A1:Q4" totalsRowShown="1" headerRowCount="1">
-  <autoFilter ref="A1:Q4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="annotationTable" displayName="annotationTable" ref="A1:Q2">
+  <autoFilter ref="A1:Q2" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -310,23 +308,23 @@
     <filterColumn colId="16" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="17">
-    <tableColumn id="1" name="Input [Source Name]" totalsRowLabel="Total"/>
-    <tableColumn id="2" name="Protocol Type" totalsRowFunction="none"/>
-    <tableColumn id="3" name="Term Source REF (DPBO:1000161)" totalsRowFunction="none"/>
-    <tableColumn id="4" name="Term Accession Number (DPBO:1000161)" totalsRowFunction="none"/>
-    <tableColumn id="5" name="Parameter [area normalization]" totalsRowFunction="none"/>
-    <tableColumn id="6" name="Term Source REF (MS:1001999)" totalsRowFunction="none"/>
-    <tableColumn id="7" name="Term Accession Number (MS:1001999)" totalsRowFunction="none"/>
-    <tableColumn id="8" name="Parameter [data transformation]" totalsRowFunction="none"/>
-    <tableColumn id="9" name="Term Source REF (MS:1000452)" totalsRowFunction="none"/>
-    <tableColumn id="10" name="Term Accession Number (MS:1000452)" totalsRowFunction="none"/>
-    <tableColumn id="11" name="Parameter [metabolite assignment file]" totalsRowFunction="none"/>
-    <tableColumn id="12" name="Term Source REF (DPBO:0000077)" totalsRowFunction="none"/>
-    <tableColumn id="13" name="Term Accession Number (DPBO:0000077)" totalsRowFunction="none"/>
-    <tableColumn id="14" name="Parameter [processed data file format]" totalsRowFunction="none"/>
-    <tableColumn id="15" name="Term Source REF (DPBO:0000027)" totalsRowFunction="none"/>
-    <tableColumn id="16" name="Term Accession Number (DPBO:0000027)" totalsRowFunction="none"/>
-    <tableColumn id="17" name="Output [Derived Data File]" totalsRowFunction="none"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Input [Source Name]" totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Protocol Type"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Term Source REF (DPBO:1000161)"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Term Accession Number (DPBO:1000161)"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Parameter [area normalization]"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Term Source REF (MS:1001999)"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Term Accession Number (MS:1001999)"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Parameter [data transformation]"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Term Source REF (MS:1000452)"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Term Accession Number (MS:1000452)"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Parameter [metabolite assignment file]"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Term Source REF (DPBO:0000077)"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Term Accession Number (DPBO:0000077)"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Parameter [processed data file format]"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Term Source REF (DPBO:0000027)"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Term Accession Number (DPBO:0000027)"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Output [Derived Data File]"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -628,16 +626,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D27"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -645,7 +646,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -653,7 +654,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -661,7 +662,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -669,7 +670,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -677,7 +678,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -685,32 +686,32 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -724,7 +725,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -738,7 +739,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -749,12 +750,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -768,7 +769,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -782,63 +783,68 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>45</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q4"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:Q2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>46</v>
       </c>
@@ -891,7 +897,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>63</v>
       </c>
@@ -944,115 +950,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G3" t="s">
-        <v>63</v>
-      </c>
-      <c r="H3" t="s">
-        <v>63</v>
-      </c>
-      <c r="I3" t="s">
-        <v>63</v>
-      </c>
-      <c r="J3" t="s">
-        <v>63</v>
-      </c>
-      <c r="K3" t="s">
-        <v>63</v>
-      </c>
-      <c r="L3" t="s">
-        <v>63</v>
-      </c>
-      <c r="M3" t="s">
-        <v>63</v>
-      </c>
-      <c r="N3" t="s">
-        <v>72</v>
-      </c>
-      <c r="O3" t="s">
-        <v>68</v>
-      </c>
-      <c r="P3" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F4" t="s">
-        <v>63</v>
-      </c>
-      <c r="G4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H4" t="s">
-        <v>63</v>
-      </c>
-      <c r="I4" t="s">
-        <v>63</v>
-      </c>
-      <c r="J4" t="s">
-        <v>63</v>
-      </c>
-      <c r="K4" t="s">
-        <v>63</v>
-      </c>
-      <c r="L4" t="s">
-        <v>63</v>
-      </c>
-      <c r="M4" t="s">
-        <v>63</v>
-      </c>
-      <c r="N4" t="s">
-        <v>73</v>
-      </c>
-      <c r="O4" t="s">
-        <v>68</v>
-      </c>
-      <c r="P4" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>63</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>

--- a/templates/dataplant/Metabolomics_computational_analysis.xlsx
+++ b/templates/dataplant/Metabolomics_computational_analysis.xlsx
@@ -1,15 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C0D0A09-9E4B-477E-BA04-EBFD862051BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet name="isa_template" sheetId="1" r:id="rId1"/>
-    <sheet name="4COM03_Metabolomics" sheetId="2" r:id="rId2"/>
+    <sheet sheetId="1" name="isa_template" state="visible" r:id="rId4"/>
+    <sheet sheetId="2" name="4COM03_Metabolomics" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
@@ -36,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.8</t>
+    <t>1.1.9</t>
   </si>
   <si>
     <t>Description</t>
@@ -186,7 +182,7 @@
     <t>Term Accession Number (MS:1000452)</t>
   </si>
   <si>
-    <t>Parameter [metabolite assignment file]</t>
+    <t>Component [metabolite assignment file]</t>
   </si>
   <si>
     <t>Term Source REF (DPBO:0000077)</t>
@@ -204,7 +200,7 @@
     <t>Term Accession Number (DPBO:0000027)</t>
   </si>
   <si>
-    <t>Output [Derived Data File]</t>
+    <t>Output [Data]</t>
   </si>
   <si>
     <t/>
@@ -216,7 +212,7 @@
     <t>DPBO</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/DPBO_1000178</t>
+    <t>http://purl.org/nfdi4plants/ontology/dpbo/DPBO_1000178</t>
   </si>
   <si>
     <t>normalized to ribitol and sample weight</t>
@@ -237,14 +233,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -271,7 +267,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -287,8 +283,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="annotationTable" displayName="annotationTable" ref="A1:Q2">
-  <autoFilter ref="A1:Q2" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" name="annotationTable" displayName="annotationTable" ref="A1:Q2" totalsRowShown="1" headerRowCount="1">
+  <autoFilter ref="A1:Q2">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -308,23 +304,23 @@
     <filterColumn colId="16" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Input [Source Name]" totalsRowLabel="Total"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Protocol Type"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Term Source REF (DPBO:1000161)"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Term Accession Number (DPBO:1000161)"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Parameter [area normalization]"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Term Source REF (MS:1001999)"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Term Accession Number (MS:1001999)"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Parameter [data transformation]"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Term Source REF (MS:1000452)"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Term Accession Number (MS:1000452)"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Parameter [metabolite assignment file]"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Term Source REF (DPBO:0000077)"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Term Accession Number (DPBO:0000077)"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Parameter [processed data file format]"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Term Source REF (DPBO:0000027)"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Term Accession Number (DPBO:0000027)"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Output [Derived Data File]"/>
+    <tableColumn id="1" name="Input [Source Name]" totalsRowLabel="Total"/>
+    <tableColumn id="2" name="Protocol Type" totalsRowFunction="none"/>
+    <tableColumn id="3" name="Term Source REF (DPBO:1000161)" totalsRowFunction="none"/>
+    <tableColumn id="4" name="Term Accession Number (DPBO:1000161)" totalsRowFunction="none"/>
+    <tableColumn id="5" name="Parameter [area normalization]" totalsRowFunction="none"/>
+    <tableColumn id="6" name="Term Source REF (MS:1001999)" totalsRowFunction="none"/>
+    <tableColumn id="7" name="Term Accession Number (MS:1001999)" totalsRowFunction="none"/>
+    <tableColumn id="8" name="Parameter [data transformation]" totalsRowFunction="none"/>
+    <tableColumn id="9" name="Term Source REF (MS:1000452)" totalsRowFunction="none"/>
+    <tableColumn id="10" name="Term Accession Number (MS:1000452)" totalsRowFunction="none"/>
+    <tableColumn id="11" name="Component [metabolite assignment file]" totalsRowFunction="none"/>
+    <tableColumn id="12" name="Term Source REF (DPBO:0000077)" totalsRowFunction="none"/>
+    <tableColumn id="13" name="Term Accession Number (DPBO:0000077)" totalsRowFunction="none"/>
+    <tableColumn id="14" name="Parameter [processed data file format]" totalsRowFunction="none"/>
+    <tableColumn id="15" name="Term Source REF (DPBO:0000027)" totalsRowFunction="none"/>
+    <tableColumn id="16" name="Term Accession Number (DPBO:0000027)" totalsRowFunction="none"/>
+    <tableColumn id="17" name="Output [Data]" totalsRowFunction="none"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -626,19 +622,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -646,7 +639,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -654,7 +647,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -662,7 +655,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -670,7 +663,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -678,7 +671,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -686,32 +679,32 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -725,7 +718,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -739,7 +732,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -750,12 +743,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -769,7 +762,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -783,68 +776,63 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>45</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>46</v>
       </c>
@@ -897,7 +885,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>63</v>
       </c>
@@ -932,7 +920,7 @@
         <v>70</v>
       </c>
       <c r="L2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="M2" t="s">
         <v>63</v>
@@ -952,7 +940,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
